--- a/src/main/resources/archetype-resources/src/test/resources/data/in/LoginLogout.xlsx
+++ b/src/main/resources/archetype-resources/src/test/resources/data/in/LoginLogout.xlsx
@@ -1,41 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="11955"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-loginLogout" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Motifs">#REF!</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
-  <si>
-    <t>Résultat</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>user</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>password2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,31 +63,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -89,13 +73,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor rgb="FF006058"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,59 +96,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF6600"/>
-    </mruColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,269 +401,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>COUNTIFS($A:$A,$A6,$C:$C, "Échec :*") &gt; 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>COUNTIFS($A:$A,$A16,$C:$C, "Échec :*") &gt; 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C24">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>COUNTIFS($A:$A,$A2,$C:$C, "Échec :*") &gt; 0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>